--- a/Tables/Table S01.xlsx
+++ b/Tables/Table S01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenup\Dropbox\03-Trabalho\01-Science\01-Artigos sendo Escritos\Sucesso das Cutias\GitHub Repo\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Dropbox\03-Trabalho\01-Science\01-Artigos sendo Escritos\02-Aceitos\Sucesso das Cutias\GitHub Repo\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
   <si>
     <t>Conspecific Aggression</t>
   </si>
@@ -233,10 +233,10 @@
     <t>Origin</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,9 +326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,7 +633,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,40 +651,40 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -696,7 +693,7 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>40210</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -719,7 +716,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -728,7 +725,7 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>40210</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -740,18 +737,9 @@
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -760,7 +748,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>40217</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -783,7 +771,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -792,7 +780,7 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>40217</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -815,7 +803,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -824,7 +812,7 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>40217</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -847,7 +835,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -856,7 +844,7 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>40294</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -879,7 +867,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -888,7 +876,7 @@
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>40294</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -900,18 +888,9 @@
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -920,7 +899,7 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>40336</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -932,18 +911,9 @@
       <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -952,7 +922,7 @@
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>40617</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -975,7 +945,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -984,7 +954,7 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>40617</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -996,18 +966,9 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1016,7 +977,7 @@
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>40751</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1039,7 +1000,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1048,7 +1009,7 @@
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>41043</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1060,18 +1021,9 @@
       <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1080,7 +1032,7 @@
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>41130</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1103,7 +1055,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1112,7 +1064,7 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>41246</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1135,7 +1087,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1144,7 +1096,7 @@
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>41246</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1156,18 +1108,9 @@
       <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1176,7 +1119,7 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>41246</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1188,18 +1131,9 @@
       <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1208,7 +1142,7 @@
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>41348</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1231,7 +1165,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1240,7 +1174,7 @@
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>41348</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1263,7 +1197,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1272,7 +1206,7 @@
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>41348</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1295,7 +1229,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1304,7 +1238,7 @@
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>41802</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1327,7 +1261,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1336,7 +1270,7 @@
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>41802</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1359,7 +1293,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1368,7 +1302,7 @@
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>41802</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1380,18 +1314,9 @@
       <c r="G23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1400,7 +1325,7 @@
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>41802</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1412,18 +1337,9 @@
       <c r="G24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1432,7 +1348,7 @@
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>41802</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1444,18 +1360,9 @@
       <c r="G25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1464,7 +1371,7 @@
       <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>41802</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1487,7 +1394,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1496,7 +1403,7 @@
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>41802</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1519,7 +1426,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1528,7 +1435,7 @@
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>41802</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1551,7 +1458,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1560,7 +1467,7 @@
       <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>41802</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1583,7 +1490,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1592,7 +1499,7 @@
       <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>41802</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1615,7 +1522,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1624,7 +1531,7 @@
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>41802</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1647,7 +1554,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1656,7 +1563,7 @@
       <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>41802</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1668,18 +1575,9 @@
       <c r="G32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1687,15 +1585,6 @@
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>2</v>
@@ -1711,7 +1600,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1719,15 +1608,6 @@
       </c>
       <c r="C34" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>2</v>
@@ -1743,7 +1623,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1751,15 +1631,6 @@
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>2</v>
@@ -1775,7 +1646,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1783,15 +1654,6 @@
       </c>
       <c r="C36" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>2</v>
@@ -1807,7 +1669,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1815,15 +1677,6 @@
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>2</v>
@@ -1839,7 +1692,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1847,15 +1700,6 @@
       </c>
       <c r="C38" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>2</v>
@@ -1871,7 +1715,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1879,15 +1723,6 @@
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>2</v>
@@ -1903,7 +1738,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1911,15 +1746,6 @@
       </c>
       <c r="C40" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>2</v>
@@ -1935,7 +1761,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1943,15 +1769,6 @@
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>2</v>
@@ -1967,7 +1784,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1975,15 +1792,6 @@
       </c>
       <c r="C42" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>2</v>
@@ -1999,7 +1807,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2007,15 +1815,6 @@
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2</v>
@@ -2031,7 +1830,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2040,15 +1839,6 @@
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>2</v>
       </c>
@@ -2063,7 +1853,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2071,15 +1861,6 @@
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2</v>
